--- a/artifacts/pending copy/ShareClass.xlsx
+++ b/artifacts/pending copy/ShareClass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/tools_demo_loaders/artifacts/pending/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrian.riddle/GitHub/ksys_loader_start/artifacts/pending copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ShareClass" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>Isin</t>
   </si>
@@ -38,10 +38,283 @@
     <t>FSGBR05CUB</t>
   </si>
   <si>
-    <t>LU0111548326</t>
-  </si>
-  <si>
-    <t>Parvest Bond Euro Government - (Classic)</t>
+    <t>ISIN_Cap</t>
+  </si>
+  <si>
+    <t>ISIN_Dist</t>
+  </si>
+  <si>
+    <t>Bloomberg_Cap</t>
+  </si>
+  <si>
+    <t>WKN_Cap</t>
+  </si>
+  <si>
+    <t>WKN_Dist</t>
+  </si>
+  <si>
+    <t>CUSIP_Cap</t>
+  </si>
+  <si>
+    <t>CUSIP_Dist</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal_Form </t>
+  </si>
+  <si>
+    <t>Launch_Date</t>
+  </si>
+  <si>
+    <t>Base_Currency</t>
+  </si>
+  <si>
+    <t>Fund_Manager</t>
+  </si>
+  <si>
+    <t>Management_Company</t>
+  </si>
+  <si>
+    <t>Investment_Manager</t>
+  </si>
+  <si>
+    <t>External_Administrator</t>
+  </si>
+  <si>
+    <t>Custodian</t>
+  </si>
+  <si>
+    <t>Entrance_Fee</t>
+  </si>
+  <si>
+    <t>Exit_Fee</t>
+  </si>
+  <si>
+    <t>Switch_Commission</t>
+  </si>
+  <si>
+    <t>Ongoing_Charges</t>
+  </si>
+  <si>
+    <t>Management_Fee</t>
+  </si>
+  <si>
+    <t>NAV_Periodicity</t>
+  </si>
+  <si>
+    <t>Dealing_Deadline</t>
+  </si>
+  <si>
+    <t>Settlement_Delivery</t>
+  </si>
+  <si>
+    <t>Execution_Subscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARVEST BOND EURO GOVERNMENT - (Classic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU0111548326 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU0111547609 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAREABC LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAREABD LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7573K427 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7573L409 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barclays Euro Aggregate Treasury 500MM (RI) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-fund of SICAV with European passport </t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Claude GUERIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP PARIBAS INVESTMENT PARTNERS LUXEMBOURG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP PARIBAS ASSET MANAGEMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP PARIBAS SECURITIES SERVICES-LUXEMBOURG BRANCH </t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day D before 4pm (Luxembourg time) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account credited/debited D+3 </t>
+  </si>
+  <si>
+    <t>Unknown NAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARVEST BOND USA HIGH YIELD - (Classic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU0111549480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU0925120700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARUHYC LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7573K534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merrill Lynch US Non- Financial High Yield BB-B Constrained (RI) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Dollar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim SIVIGNY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISCHER FRANCIS TREES &amp; WATTS INC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARVEST EQUITY EUROPE SMALL CAP - (Classic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU0212178916 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU0212178676 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREURCC LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREURCD LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0MY3W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0MY3X </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7574H167 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L7574H217 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSCI Europe Small Caps (NR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damien KOHLER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP Paribas Investment Partners UK LTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP PARIBAS L1 MULTI-ASSET INCOME - (Classic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU1056594234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU1056594317 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMAICRA LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMAICRI LX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12EJ8 </t>
+  </si>
+  <si>
+    <t>No Benchmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart VAN POUCKE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP Paribas Investment Partners Nederland N.V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP PARIBAS INVESTMENT PARTNERS ASIA Ltd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNP PARIBAS AQUA - (Classic) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR0010668145 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNPAQUP FP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSCI World (NR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">France </t>
+  </si>
+  <si>
+    <t>FCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubert AARTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPAX ASSET MANAGEMENT L TD </t>
+  </si>
+  <si>
+    <t>BNP PARIBAS SECURITIES SERVICES</t>
+  </si>
+  <si>
+    <t>Jusqu'à 30 000 EUR, 2,4% De 30 001 EUR à 150 000 EUR, 1,4% De 150 001 EUR à 800 000 EUR, 1,15% Au-delà, 0,9%</t>
+  </si>
+  <si>
+    <t>Quotidienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VL inconnue </t>
+  </si>
+  <si>
+    <t>FSGBR05CXJ</t>
+  </si>
+  <si>
+    <t>FSUSA08I47</t>
+  </si>
+  <si>
+    <t>FS0000B55X</t>
+  </si>
+  <si>
+    <t>FSUSA09LN1</t>
+  </si>
+  <si>
+    <t>Bloomberg_Dist</t>
   </si>
 </sst>
 </file>
@@ -77,8 +350,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,15 +631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,16 +649,487 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>937978</v>
+      </c>
+      <c r="I2">
+        <v>937977</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1">
+        <v>36791</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>937986</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1">
+        <v>36983</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="1">
+        <v>39349</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1">
+        <v>41900</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1.5700000000000002E-2</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="1">
+        <v>39785</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
